--- a/src/main/java/com/crm/qa/testdata/HubSpotTestData.xlsx
+++ b/src/main/java/com/crm/qa/testdata/HubSpotTestData.xlsx
@@ -4,6 +4,9 @@
   <workbookPr/>
   <sheets>
     <sheet state="visible" name="contacts" sheetId="1" r:id="rId3"/>
+    <sheet state="visible" name="tickets" sheetId="2" r:id="rId4"/>
+    <sheet state="visible" name="deals" sheetId="3" r:id="rId5"/>
+    <sheet state="visible" name="companies" sheetId="4" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -11,11 +14,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+  <si>
+    <t>Deal Name</t>
+  </si>
   <si>
     <t>Email</t>
   </si>
   <si>
+    <t>Ticket Name</t>
+  </si>
+  <si>
+    <t>Ticket Status</t>
+  </si>
+  <si>
+    <t>Amount</t>
+  </si>
+  <si>
+    <t>Ticket Description</t>
+  </si>
+  <si>
+    <t>Close date</t>
+  </si>
+  <si>
     <t>First name</t>
   </si>
   <si>
@@ -25,9 +46,15 @@
     <t>Job title</t>
   </si>
   <si>
+    <t>Luke's Cafe</t>
+  </si>
+  <si>
     <t>arnav.singh@gmail.com</t>
   </si>
   <si>
+    <t>$2,500</t>
+  </si>
+  <si>
     <t>Arnav</t>
   </si>
   <si>
@@ -59,19 +86,84 @@
   </si>
   <si>
     <t>HR Manager</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Sales Enterprise</t>
+  </si>
+  <si>
+    <t>Waiting on Us</t>
+  </si>
+  <si>
+    <t>Sales Enterprise ticket</t>
+  </si>
+  <si>
+    <t>Chat</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Marketing Starter</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Marketing Starter ticket</t>
+  </si>
+  <si>
+    <t>Phone</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Central Perk</t>
+  </si>
+  <si>
+    <t>$15,000</t>
+  </si>
+  <si>
+    <t>Company Domain</t>
+  </si>
+  <si>
+    <t>dundermifflin.com</t>
+  </si>
+  <si>
+    <t>lukescafe.com</t>
+  </si>
+  <si>
+    <t>centralperk.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="d/mmmm/yyyy"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <name val="Arial"/>
+    </font>
     <font/>
+    <font>
+      <u/>
+      <color rgb="FF1155CC"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -87,12 +179,27 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -103,6 +210,18 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
@@ -120,62 +239,227 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>15</v>
+      <c r="A4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="15.43"/>
+    <col customWidth="1" min="2" max="2" width="16.71"/>
+    <col customWidth="1" min="3" max="3" width="20.29"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="3" max="3" width="21.86"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="5">
+        <v>43653.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="5">
+        <v>43713.0</v>
+      </c>
+    </row>
+  </sheetData>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <cols>
+    <col customWidth="1" min="1" max="1" width="16.0"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="6" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="6" t="s">
+        <v>41</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="A2"/>
+    <hyperlink r:id="rId2" ref="A3"/>
+    <hyperlink r:id="rId3" ref="A4"/>
+  </hyperlinks>
+  <drawing r:id="rId4"/>
+</worksheet>
 </file>